--- a/Jogos_do_Dia/2023-08-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>League</t>
   </si>
@@ -133,16 +133,25 @@
     <t>19:30:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Londrina</t>
   </si>
   <si>
     <t>Belgrano</t>
   </si>
   <si>
+    <t>Vila Nova</t>
+  </si>
+  <si>
     <t>Atlético GO</t>
   </si>
   <si>
     <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>Mirassol</t>
   </si>
 </sst>
 </file>
@@ -504,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,19 +640,19 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>2.51</v>
+        <v>2.8</v>
       </c>
       <c r="H2">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="I2">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="J2">
         <v>1.1</v>
@@ -658,10 +667,10 @@
         <v>2.62</v>
       </c>
       <c r="N2">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="P2">
         <v>1.51</v>
@@ -738,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>2.8</v>
@@ -807,13 +816,13 @@
         <v>2.8</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -825,10 +834,117 @@
         <v>2.03</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AI3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>2.25</v>
+      </c>
+      <c r="H4">
+        <v>3.2</v>
+      </c>
+      <c r="I4">
+        <v>3.25</v>
+      </c>
+      <c r="J4">
+        <v>1.11</v>
+      </c>
+      <c r="K4">
+        <v>6.5</v>
+      </c>
+      <c r="L4">
+        <v>1.54</v>
+      </c>
+      <c r="M4">
+        <v>2.32</v>
+      </c>
+      <c r="N4">
+        <v>2.75</v>
+      </c>
+      <c r="O4">
+        <v>1.4</v>
+      </c>
+      <c r="P4">
+        <v>1.58</v>
+      </c>
+      <c r="Q4">
+        <v>2.2</v>
+      </c>
+      <c r="R4">
+        <v>2.25</v>
+      </c>
+      <c r="S4">
+        <v>1.57</v>
+      </c>
+      <c r="T4">
+        <v>1.3</v>
+      </c>
+      <c r="U4">
+        <v>1.36</v>
+      </c>
+      <c r="V4">
+        <v>1.61</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>1.27</v>
+      </c>
+      <c r="Y4">
+        <v>1.91</v>
+      </c>
+      <c r="Z4">
+        <v>1.35</v>
+      </c>
+      <c r="AA4">
+        <v>3.26</v>
+      </c>
+      <c r="AB4">
+        <v>1.64</v>
+      </c>
+      <c r="AC4">
+        <v>8.5</v>
+      </c>
+      <c r="AD4">
+        <v>2.66</v>
+      </c>
+      <c r="AE4">
+        <v>1.2</v>
+      </c>
+      <c r="AF4">
+        <v>1.32</v>
+      </c>
+      <c r="AG4">
+        <v>1.57</v>
+      </c>
+      <c r="AH4">
+        <v>1.98</v>
+      </c>
+      <c r="AI4">
+        <v>2.65</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -646,13 +646,13 @@
         <v>43</v>
       </c>
       <c r="G2">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H2">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J2">
         <v>1.1</v>
@@ -661,16 +661,16 @@
         <v>6.5</v>
       </c>
       <c r="L2">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M2">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
         <v>2.3</v>
       </c>
       <c r="O2">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P2">
         <v>1.51</v>
@@ -825,7 +825,7 @@
         <v>2.04</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF3">
         <v>1.66</v>
@@ -837,7 +837,7 @@
         <v>2.69</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -860,10 +860,10 @@
         <v>45</v>
       </c>
       <c r="G4">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I4">
         <v>3.25</v>
@@ -875,13 +875,13 @@
         <v>6.5</v>
       </c>
       <c r="L4">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="M4">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="O4">
         <v>1.4</v>
